--- a/RadarClient.xlsx
+++ b/RadarClient.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7215" windowHeight="5130" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7215" windowHeight="5130" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INIT" sheetId="1" r:id="rId1"/>
     <sheet name="RIMAGE" sheetId="2" r:id="rId2"/>
     <sheet name="Visual" sheetId="3" r:id="rId3"/>
     <sheet name="Digital" sheetId="4" r:id="rId4"/>
-    <sheet name="track" sheetId="5" r:id="rId5"/>
-    <sheet name="points" sheetId="6" r:id="rId6"/>
-    <sheet name="image" sheetId="7" r:id="rId7"/>
+    <sheet name="coor sys" sheetId="8" r:id="rId5"/>
+    <sheet name="track" sheetId="5" r:id="rId6"/>
+    <sheet name="points" sheetId="6" r:id="rId7"/>
+    <sheet name="image" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="139">
   <si>
     <t>название</t>
   </si>
@@ -306,6 +307,9 @@
     <t>x</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>x_</t>
   </si>
   <si>
@@ -442,6 +446,21 @@
   </si>
   <si>
     <t>delete [] points;</t>
+  </si>
+  <si>
+    <t>-x</t>
+  </si>
+  <si>
+    <t>a = pi/2 - fi</t>
+  </si>
+  <si>
+    <t>e = pi/2 - theta</t>
+  </si>
+  <si>
+    <t>e=arctg(z / sqrt (…))</t>
+  </si>
+  <si>
+    <t>a = arctg (x / y)</t>
   </si>
 </sst>
 </file>
@@ -746,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -823,6 +842,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2069,6 +2089,260 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447868</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/c/c0/Spherical_with_grid.svg/220px-Spherical_with_grid.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4105468" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8194" name="AutoShape 2" descr="{\begin{cases}x=r\sin \theta \cos \varphi ,\\y=r\sin \theta \sin \varphi ,\\z=r\cos \theta .\end{cases}}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5486400" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8196" name="AutoShape 4" descr="{\begin{cases}x=r\sin \theta \cos \varphi ,\\y=r\sin \theta \sin \varphi ,\\z=r\cos \theta .\end{cases}}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4876800" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4886325" y="209550"/>
+          <a:ext cx="1638300" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4752975" y="1295400"/>
+          <a:ext cx="4419600" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -2368,7 +2642,7 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,7 +3273,7 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="19">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4069,7 +4343,7 @@
   <dimension ref="A1:CB80"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2"/>
+      <selection activeCell="CA10" sqref="CA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,7 +4407,9 @@
       <c r="BD1" s="23"/>
       <c r="BE1" s="23"/>
       <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
+      <c r="BG1" s="23">
+        <v>1</v>
+      </c>
       <c r="BH1" s="23"/>
       <c r="BI1" s="23"/>
       <c r="BJ1" s="23"/>
@@ -4298,7 +4574,9 @@
       <c r="BE3" s="21"/>
       <c r="BF3" s="21"/>
       <c r="BG3" s="21"/>
-      <c r="BH3" s="21"/>
+      <c r="BH3" s="21">
+        <v>2</v>
+      </c>
       <c r="BI3" s="21"/>
       <c r="BJ3" s="21"/>
       <c r="BK3" s="21"/>
@@ -4463,7 +4741,9 @@
       <c r="BF5" s="21"/>
       <c r="BG5" s="21"/>
       <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
+      <c r="BI5" s="21">
+        <v>3</v>
+      </c>
       <c r="BJ5" s="21"/>
       <c r="BK5" s="21"/>
       <c r="BL5" s="21"/>
@@ -4547,7 +4827,9 @@
       <c r="BH6" s="21"/>
       <c r="BI6" s="21"/>
       <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
+      <c r="BK6" s="21">
+        <v>4</v>
+      </c>
       <c r="BL6" s="21"/>
       <c r="BM6" s="21"/>
       <c r="BN6" s="21"/>
@@ -4632,7 +4914,9 @@
       <c r="BK7" s="21"/>
       <c r="BL7" s="21"/>
       <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
+      <c r="BN7" s="21">
+        <v>5</v>
+      </c>
       <c r="BO7" s="21"/>
       <c r="BP7" s="21"/>
       <c r="BQ7" s="21"/>
@@ -4719,7 +5003,9 @@
       <c r="BP8" s="21"/>
       <c r="BQ8" s="21"/>
       <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
+      <c r="BS8" s="21">
+        <v>6</v>
+      </c>
       <c r="BT8" s="21"/>
       <c r="BU8" s="21"/>
       <c r="BV8" s="21"/>
@@ -4809,7 +5095,9 @@
       <c r="BX9" s="21"/>
       <c r="BY9" s="21"/>
       <c r="BZ9" s="21"/>
-      <c r="CA9" s="21"/>
+      <c r="CA9" s="21">
+        <v>7</v>
+      </c>
       <c r="CB9" s="26"/>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.25">
@@ -5826,14 +6114,10 @@
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
-      <c r="AD22" s="21">
-        <v>5</v>
-      </c>
+      <c r="AD22" s="21"/>
       <c r="AE22" s="21"/>
       <c r="AF22" s="21"/>
-      <c r="AG22" s="21">
-        <v>6</v>
-      </c>
+      <c r="AG22" s="21"/>
       <c r="AH22" s="21"/>
       <c r="AI22" s="21"/>
       <c r="AJ22" s="21"/>
@@ -5909,9 +6193,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
-      <c r="AA23" s="21">
-        <v>4</v>
-      </c>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="21"/>
@@ -5920,9 +6202,7 @@
       <c r="AG23" s="21"/>
       <c r="AH23" s="21"/>
       <c r="AI23" s="21"/>
-      <c r="AJ23" s="21">
-        <v>7</v>
-      </c>
+      <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
       <c r="AM23" s="21"/>
@@ -6018,15 +6298,11 @@
       <c r="AU24" s="21"/>
       <c r="AV24" s="21"/>
       <c r="AW24" s="21"/>
-      <c r="AX24" s="21">
-        <v>11</v>
-      </c>
+      <c r="AX24" s="21"/>
       <c r="AY24" s="21"/>
       <c r="AZ24" s="21"/>
       <c r="BA24" s="21"/>
-      <c r="BB24" s="21">
-        <v>12</v>
-      </c>
+      <c r="BB24" s="21"/>
       <c r="BC24" s="21"/>
       <c r="BD24" s="21"/>
       <c r="BE24" s="21"/>
@@ -6078,9 +6354,7 @@
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
-      <c r="X25" s="21">
-        <v>3</v>
-      </c>
+      <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
@@ -6095,9 +6369,7 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="21">
-        <v>8</v>
-      </c>
+      <c r="AM25" s="21"/>
       <c r="AN25" s="26"/>
       <c r="AO25" s="25"/>
       <c r="AP25" s="21"/>
@@ -6105,9 +6377,7 @@
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
       <c r="AT25" s="21"/>
-      <c r="AU25" s="21">
-        <v>10</v>
-      </c>
+      <c r="AU25" s="21"/>
       <c r="AV25" s="21"/>
       <c r="AW25" s="21"/>
       <c r="AX25" s="21"/>
@@ -6185,9 +6455,7 @@
       <c r="AN26" s="26"/>
       <c r="AO26" s="25"/>
       <c r="AP26" s="21"/>
-      <c r="AQ26" s="21">
-        <v>9</v>
-      </c>
+      <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
       <c r="AT26" s="21"/>
@@ -6201,9 +6469,7 @@
       <c r="BB26" s="21"/>
       <c r="BC26" s="21"/>
       <c r="BD26" s="21"/>
-      <c r="BE26" s="21">
-        <v>13</v>
-      </c>
+      <c r="BE26" s="21"/>
       <c r="BF26" s="21"/>
       <c r="BG26" s="21"/>
       <c r="BH26" s="21"/>
@@ -6289,9 +6555,7 @@
       <c r="BF27" s="21"/>
       <c r="BG27" s="21"/>
       <c r="BH27" s="21"/>
-      <c r="BI27" s="21">
-        <v>14</v>
-      </c>
+      <c r="BI27" s="21"/>
       <c r="BJ27" s="21"/>
       <c r="BK27" s="21"/>
       <c r="BL27" s="21"/>
@@ -6334,9 +6598,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
-      <c r="V28" s="21">
-        <v>2</v>
-      </c>
+      <c r="V28" s="21"/>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
@@ -6380,9 +6642,7 @@
       <c r="BK28" s="21"/>
       <c r="BL28" s="21"/>
       <c r="BM28" s="21"/>
-      <c r="BN28" s="21">
-        <v>15</v>
-      </c>
+      <c r="BN28" s="21"/>
       <c r="BO28" s="21"/>
       <c r="BP28" s="21"/>
       <c r="BQ28" s="21"/>
@@ -6471,9 +6731,7 @@
       <c r="BR29" s="21"/>
       <c r="BS29" s="21"/>
       <c r="BT29" s="21"/>
-      <c r="BU29" s="21">
-        <v>16</v>
-      </c>
+      <c r="BU29" s="21"/>
       <c r="BV29" s="21"/>
       <c r="BW29" s="21"/>
       <c r="BX29" s="21"/>
@@ -6562,9 +6820,7 @@
       <c r="BY30" s="21"/>
       <c r="BZ30" s="21"/>
       <c r="CA30" s="21"/>
-      <c r="CB30" s="26">
-        <v>17</v>
-      </c>
+      <c r="CB30" s="26"/>
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
@@ -6587,9 +6843,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="21">
-        <v>1</v>
-      </c>
+      <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
@@ -10678,14 +10932,14 @@
   <dimension ref="A1:X92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O6:O7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1">
         <v>80</v>
@@ -10930,75 +11184,75 @@
     </row>
     <row r="6" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="23">
         <f>B2*B8/B1</f>
-        <v>-1920</v>
+        <v>1728</v>
       </c>
       <c r="C6" s="23">
         <f>C2*C8/C1</f>
-        <v>-1824</v>
+        <v>1824</v>
       </c>
       <c r="D6" s="23">
         <f t="shared" ref="D6:P6" si="2">D2*D8/D1</f>
-        <v>-1632</v>
+        <v>1920</v>
       </c>
       <c r="E6" s="23">
         <f t="shared" si="2"/>
-        <v>-1344</v>
+        <v>2112</v>
       </c>
       <c r="F6" s="23">
         <f t="shared" si="2"/>
-        <v>-1056</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="23">
         <f t="shared" si="2"/>
-        <v>-768</v>
+        <v>2880</v>
       </c>
       <c r="H6" s="23">
         <f t="shared" si="2"/>
-        <v>-480</v>
+        <v>3648</v>
       </c>
       <c r="I6" s="23">
         <f t="shared" si="2"/>
-        <v>-192</v>
+        <v>-3936</v>
       </c>
       <c r="J6" s="23">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>-3936</v>
       </c>
       <c r="K6" s="23">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>-3936</v>
       </c>
       <c r="L6" s="23">
         <f t="shared" si="2"/>
-        <v>864</v>
+        <v>-3936</v>
       </c>
       <c r="M6" s="23">
         <f t="shared" si="2"/>
-        <v>1248</v>
+        <v>-3936</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="2"/>
-        <v>1536</v>
+        <v>-3936</v>
       </c>
       <c r="O6" s="23">
         <f t="shared" si="2"/>
-        <v>1920</v>
+        <v>-3936</v>
       </c>
       <c r="P6" s="23">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>-3936</v>
       </c>
       <c r="Q6" s="23">
         <f t="shared" ref="Q6:X6" si="3">Q2*Q8/Q1</f>
-        <v>3072</v>
+        <v>-3936</v>
       </c>
       <c r="R6" s="23">
         <f t="shared" si="3"/>
-        <v>3744</v>
+        <v>-3936</v>
       </c>
       <c r="S6" s="23">
         <f t="shared" si="3"/>
@@ -11027,75 +11281,75 @@
     </row>
     <row r="7" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="28">
         <f>B2*B9/B1</f>
-        <v>960</v>
+        <v>3840</v>
       </c>
       <c r="C7" s="28">
         <f>C2*C9/C1</f>
-        <v>1248</v>
+        <v>3648</v>
       </c>
       <c r="D7" s="28">
         <f t="shared" ref="D7:P7" si="4">D2*D9/D1</f>
-        <v>1536</v>
+        <v>3456</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="4"/>
-        <v>1728</v>
+        <v>3360</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" si="4"/>
-        <v>1824</v>
+        <v>3264</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="4"/>
-        <v>1824</v>
+        <v>3168</v>
       </c>
       <c r="H7" s="28">
         <f t="shared" si="4"/>
-        <v>1728</v>
-      </c>
-      <c r="I7" s="28">
+        <v>3072</v>
+      </c>
+      <c r="I7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1536</v>
-      </c>
-      <c r="J7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1440</v>
-      </c>
-      <c r="K7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1536</v>
-      </c>
-      <c r="L7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1632</v>
-      </c>
-      <c r="M7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1632</v>
-      </c>
-      <c r="N7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1440</v>
-      </c>
-      <c r="O7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1344</v>
-      </c>
-      <c r="P7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="28" t="e">
         <f t="shared" si="4"/>
-        <v>1248</v>
-      </c>
-      <c r="Q7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="28" t="e">
         <f t="shared" ref="Q7:X7" si="5">Q2*Q9/Q1</f>
-        <v>1152</v>
-      </c>
-      <c r="R7" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="28" t="e">
         <f t="shared" si="5"/>
-        <v>1056</v>
+        <v>#N/A</v>
       </c>
       <c r="S7" s="28" t="e">
         <f t="shared" si="5"/>
@@ -11124,75 +11378,75 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <f>-B1/2+B11-1</f>
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <f>-C1/2+C11-1</f>
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:P8" si="6">-D1/2+D11-1</f>
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <f t="shared" si="6"/>
-        <v>-14</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>-2</v>
+        <v>-41</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>-41</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>-41</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>-41</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>-41</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>-41</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>-41</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>-41</v>
       </c>
       <c r="Q8">
         <f t="shared" ref="Q8:X8" si="7">-Q1/2+Q11-1</f>
-        <v>32</v>
+        <v>-41</v>
       </c>
       <c r="R8">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>-41</v>
       </c>
       <c r="S8">
         <f t="shared" si="7"/>
@@ -11221,75 +11475,75 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <f>-(-B1/2+B12-1)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <f>-(-C1/2+C12-1)</f>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:P9" si="8">-(-D1/2+D12-1)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="I9" t="e">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="J9">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="K9">
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="e">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="L9">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" t="e">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="M9">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="N9">
+        <v>#N/A</v>
+      </c>
+      <c r="N9" t="e">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="O9">
+        <v>#N/A</v>
+      </c>
+      <c r="O9" t="e">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="P9">
+        <v>#N/A</v>
+      </c>
+      <c r="P9" t="e">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="Q9">
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" t="e">
         <f t="shared" ref="Q9:X9" si="9">-(-Q1/2+Q12-1)</f>
-        <v>12</v>
-      </c>
-      <c r="R9">
+        <v>#N/A</v>
+      </c>
+      <c r="R9" t="e">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>#N/A</v>
       </c>
       <c r="S9" t="e">
         <f t="shared" si="9"/>
@@ -11392,75 +11646,75 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <f>SUM(B13:B92)</f>
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <f>SUM(C13:C92)</f>
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:P11" si="10">SUM(D13:D92)</f>
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="H11">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I11">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f t="shared" si="10"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f t="shared" si="10"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f t="shared" ref="Q11:X11" si="11">SUM(Q13:Q92)</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <f t="shared" si="11"/>
@@ -11489,75 +11743,75 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <f>MATCH(B11,B13:B92,0)</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f>MATCH(C11,C13:C92,0)</f>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:P12" si="12">MATCH(D11,D13:D92,0)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="I12" t="e">
         <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="J12">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
         <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="K12">
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
         <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="L12">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
         <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="M12">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="N12">
+        <v>#N/A</v>
+      </c>
+      <c r="N12" t="e">
         <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="O12">
+        <v>#N/A</v>
+      </c>
+      <c r="O12" t="e">
         <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="P12">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="e">
         <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="Q12">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" t="e">
         <f t="shared" ref="Q12" si="13">MATCH(Q11,Q13:Q92,0)</f>
-        <v>29</v>
-      </c>
-      <c r="R12">
+        <v>#N/A</v>
+      </c>
+      <c r="R12" t="e">
         <f t="shared" ref="R12" si="14">MATCH(R11,R13:R92,0)</f>
-        <v>30</v>
+        <v>#N/A</v>
       </c>
       <c r="S12" t="e">
         <f t="shared" ref="S12" si="15">MATCH(S11,S13:S92,0)</f>
@@ -11585,9 +11839,9 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
+      <c r="B13">
         <f>IFERROR(MATCH(B$10,Visual!$A1:$CB1,0),"")</f>
-        <v/>
+        <v>59</v>
       </c>
       <c r="C13" t="str">
         <f>IFERROR(MATCH(C$10,Visual!$A1:$CB1,0),"")</f>
@@ -11777,9 +12031,9 @@
         <f>IFERROR(MATCH(B$10,Visual!$A3:$CB3,0),"")</f>
         <v/>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f>IFERROR(MATCH(C$10,Visual!$A3:$CB3,0),"")</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="D15" t="str">
         <f>IFERROR(MATCH(D$10,Visual!$A3:$CB3,0),"")</f>
@@ -11969,9 +12223,9 @@
         <f>IFERROR(MATCH(C$10,Visual!$A5:$CB5,0),"")</f>
         <v/>
       </c>
-      <c r="D17" t="str">
+      <c r="D17">
         <f>IFERROR(MATCH(D$10,Visual!$A5:$CB5,0),"")</f>
-        <v/>
+        <v>61</v>
       </c>
       <c r="E17" t="str">
         <f>IFERROR(MATCH(E$10,Visual!$A5:$CB5,0),"")</f>
@@ -12067,9 +12321,9 @@
         <f>IFERROR(MATCH(D$10,Visual!$A6:$CB6,0),"")</f>
         <v/>
       </c>
-      <c r="E18" t="str">
+      <c r="E18">
         <f>IFERROR(MATCH(E$10,Visual!$A6:$CB6,0),"")</f>
-        <v/>
+        <v>63</v>
       </c>
       <c r="F18" t="str">
         <f>IFERROR(MATCH(F$10,Visual!$A6:$CB6,0),"")</f>
@@ -12165,9 +12419,9 @@
         <f>IFERROR(MATCH(E$10,Visual!$A7:$CB7,0),"")</f>
         <v/>
       </c>
-      <c r="F19" t="str">
+      <c r="F19">
         <f>IFERROR(MATCH(F$10,Visual!$A7:$CB7,0),"")</f>
-        <v/>
+        <v>66</v>
       </c>
       <c r="G19" t="str">
         <f>IFERROR(MATCH(G$10,Visual!$A7:$CB7,0),"")</f>
@@ -12263,9 +12517,9 @@
         <f>IFERROR(MATCH(F$10,Visual!$A8:$CB8,0),"")</f>
         <v/>
       </c>
-      <c r="G20" t="str">
+      <c r="G20">
         <f>IFERROR(MATCH(G$10,Visual!$A8:$CB8,0),"")</f>
-        <v/>
+        <v>71</v>
       </c>
       <c r="H20" t="str">
         <f>IFERROR(MATCH(H$10,Visual!$A8:$CB8,0),"")</f>
@@ -12361,9 +12615,9 @@
         <f>IFERROR(MATCH(G$10,Visual!$A9:$CB9,0),"")</f>
         <v/>
       </c>
-      <c r="H21" t="str">
+      <c r="H21">
         <f>IFERROR(MATCH(H$10,Visual!$A9:$CB9,0),"")</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="I21" t="str">
         <f>IFERROR(MATCH(I$10,Visual!$A9:$CB9,0),"")</f>
@@ -13575,13 +13829,13 @@
         <f>IFERROR(MATCH(E$10,Visual!$A22:$CB22,0),"")</f>
         <v/>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>IFERROR(MATCH(F$10,Visual!$A22:$CB22,0),"")</f>
-        <v>30</v>
-      </c>
-      <c r="G34">
+        <v/>
+      </c>
+      <c r="G34" t="str">
         <f>IFERROR(MATCH(G$10,Visual!$A22:$CB22,0),"")</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="H34" t="str">
         <f>IFERROR(MATCH(H$10,Visual!$A22:$CB22,0),"")</f>
@@ -13665,9 +13919,9 @@
         <f>IFERROR(MATCH(D$10,Visual!$A23:$CB23,0),"")</f>
         <v/>
       </c>
-      <c r="E35">
+      <c r="E35" t="str">
         <f>IFERROR(MATCH(E$10,Visual!$A23:$CB23,0),"")</f>
-        <v>27</v>
+        <v/>
       </c>
       <c r="F35" t="str">
         <f>IFERROR(MATCH(F$10,Visual!$A23:$CB23,0),"")</f>
@@ -13677,9 +13931,9 @@
         <f>IFERROR(MATCH(G$10,Visual!$A23:$CB23,0),"")</f>
         <v/>
       </c>
-      <c r="H35">
+      <c r="H35" t="str">
         <f>IFERROR(MATCH(H$10,Visual!$A23:$CB23,0),"")</f>
-        <v>36</v>
+        <v/>
       </c>
       <c r="I35" t="str">
         <f>IFERROR(MATCH(I$10,Visual!$A23:$CB23,0),"")</f>
@@ -13787,13 +14041,13 @@
         <f>IFERROR(MATCH(K$10,Visual!$A24:$CB24,0),"")</f>
         <v/>
       </c>
-      <c r="L36">
+      <c r="L36" t="str">
         <f>IFERROR(MATCH(L$10,Visual!$A24:$CB24,0),"")</f>
-        <v>50</v>
-      </c>
-      <c r="M36">
+        <v/>
+      </c>
+      <c r="M36" t="str">
         <f>IFERROR(MATCH(M$10,Visual!$A24:$CB24,0),"")</f>
-        <v>54</v>
+        <v/>
       </c>
       <c r="N36" t="str">
         <f>IFERROR(MATCH(N$10,Visual!$A24:$CB24,0),"")</f>
@@ -13849,9 +14103,9 @@
         <f>IFERROR(MATCH(C$10,Visual!$A25:$CB25,0),"")</f>
         <v/>
       </c>
-      <c r="D37">
+      <c r="D37" t="str">
         <f>IFERROR(MATCH(D$10,Visual!$A25:$CB25,0),"")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="E37" t="str">
         <f>IFERROR(MATCH(E$10,Visual!$A25:$CB25,0),"")</f>
@@ -13869,17 +14123,17 @@
         <f>IFERROR(MATCH(H$10,Visual!$A25:$CB25,0),"")</f>
         <v/>
       </c>
-      <c r="I37">
+      <c r="I37" t="str">
         <f>IFERROR(MATCH(I$10,Visual!$A25:$CB25,0),"")</f>
-        <v>39</v>
+        <v/>
       </c>
       <c r="J37" t="str">
         <f>IFERROR(MATCH(J$10,Visual!$A25:$CB25,0),"")</f>
         <v/>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <f>IFERROR(MATCH(K$10,Visual!$A25:$CB25,0),"")</f>
-        <v>47</v>
+        <v/>
       </c>
       <c r="L37" t="str">
         <f>IFERROR(MATCH(L$10,Visual!$A25:$CB25,0),"")</f>
@@ -13967,9 +14221,9 @@
         <f>IFERROR(MATCH(I$10,Visual!$A26:$CB26,0),"")</f>
         <v/>
       </c>
-      <c r="J38">
+      <c r="J38" t="str">
         <f>IFERROR(MATCH(J$10,Visual!$A26:$CB26,0),"")</f>
-        <v>43</v>
+        <v/>
       </c>
       <c r="K38" t="str">
         <f>IFERROR(MATCH(K$10,Visual!$A26:$CB26,0),"")</f>
@@ -13983,9 +14237,9 @@
         <f>IFERROR(MATCH(M$10,Visual!$A26:$CB26,0),"")</f>
         <v/>
       </c>
-      <c r="N38">
+      <c r="N38" t="str">
         <f>IFERROR(MATCH(N$10,Visual!$A26:$CB26,0),"")</f>
-        <v>57</v>
+        <v/>
       </c>
       <c r="O38" t="str">
         <f>IFERROR(MATCH(O$10,Visual!$A26:$CB26,0),"")</f>
@@ -14081,9 +14335,9 @@
         <f>IFERROR(MATCH(N$10,Visual!$A27:$CB27,0),"")</f>
         <v/>
       </c>
-      <c r="O39">
+      <c r="O39" t="str">
         <f>IFERROR(MATCH(O$10,Visual!$A27:$CB27,0),"")</f>
-        <v>61</v>
+        <v/>
       </c>
       <c r="P39" t="str">
         <f>IFERROR(MATCH(P$10,Visual!$A27:$CB27,0),"")</f>
@@ -14127,9 +14381,9 @@
         <f>IFERROR(MATCH(B$10,Visual!$A28:$CB28,0),"")</f>
         <v/>
       </c>
-      <c r="C40">
+      <c r="C40" t="str">
         <f>IFERROR(MATCH(C$10,Visual!$A28:$CB28,0),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(MATCH(D$10,Visual!$A28:$CB28,0),"")</f>
@@ -14179,9 +14433,9 @@
         <f>IFERROR(MATCH(O$10,Visual!$A28:$CB28,0),"")</f>
         <v/>
       </c>
-      <c r="P40">
+      <c r="P40" t="str">
         <f>IFERROR(MATCH(P$10,Visual!$A28:$CB28,0),"")</f>
-        <v>66</v>
+        <v/>
       </c>
       <c r="Q40" t="str">
         <f>IFERROR(MATCH(Q$10,Visual!$A28:$CB28,0),"")</f>
@@ -14277,9 +14531,9 @@
         <f>IFERROR(MATCH(P$10,Visual!$A29:$CB29,0),"")</f>
         <v/>
       </c>
-      <c r="Q41">
+      <c r="Q41" t="str">
         <f>IFERROR(MATCH(Q$10,Visual!$A29:$CB29,0),"")</f>
-        <v>73</v>
+        <v/>
       </c>
       <c r="R41" t="str">
         <f>IFERROR(MATCH(R$10,Visual!$A29:$CB29,0),"")</f>
@@ -14375,9 +14629,9 @@
         <f>IFERROR(MATCH(Q$10,Visual!$A30:$CB30,0),"")</f>
         <v/>
       </c>
-      <c r="R42">
+      <c r="R42" t="str">
         <f>IFERROR(MATCH(R$10,Visual!$A30:$CB30,0),"")</f>
-        <v>80</v>
+        <v/>
       </c>
       <c r="S42" t="str">
         <f>IFERROR(MATCH(S$10,Visual!$A30:$CB30,0),"")</f>
@@ -14405,9 +14659,9 @@
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="B43" t="str">
         <f>IFERROR(MATCH(B$10,Visual!$A31:$CB31,0),"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="C43" t="str">
         <f>IFERROR(MATCH(C$10,Visual!$A31:$CB31,0),"")</f>
@@ -19111,10 +19365,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M2:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M3" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>135</v>
+      </c>
+      <c r="S13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F103" sqref="B6:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19125,36 +19426,36 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="19">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <f>C2</f>
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -19165,7 +19466,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -19177,19 +19478,19 @@
         <v>ts[0].</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -19198,20 +19499,20 @@
         <v>ts[0].</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -19220,20 +19521,20 @@
         <v>ts[0].</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A8)</f>
-        <v>-1920</v>
+        <v>1728</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -19242,20 +19543,20 @@
         <v>ts[0].</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A8)</f>
-        <v>960</v>
+        <v>3840</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -19264,20 +19565,20 @@
         <v>ts[0].</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12">
         <f ca="1">SQRT(E10^2+E11^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1239.3546707863732</v>
+        <v>220.68332779172164</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -19286,19 +19587,19 @@
         <v>ts[0].</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -19307,19 +19608,19 @@
         <v>ts[0].</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -19328,19 +19629,19 @@
         <v>ts[0].</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -19349,19 +19650,19 @@
         <v>ts[0].</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -19370,20 +19671,20 @@
         <v>ts[0].</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <f>$C$2-A8</f>
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -19392,27 +19693,27 @@
         <v>ts[0].</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -19423,7 +19724,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -19436,16 +19737,17 @@
         <v>ts[1].</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" s="19">
-        <v>0</v>
+        <f>E8</f>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -19454,17 +19756,17 @@
         <v>ts[1].</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E23" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -19473,17 +19775,17 @@
         <v>ts[1].</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A22)</f>
-        <v>-1824</v>
+        <v>1824</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -19492,17 +19794,17 @@
         <v>ts[1].</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A22)</f>
-        <v>1248</v>
+        <v>3648</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -19511,17 +19813,17 @@
         <v>ts[1].</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26">
         <f ca="1">SQRT(E24^2+E25^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1275.9937303921206</v>
+        <v>213.74973921667402</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -19530,16 +19832,16 @@
         <v>ts[1].</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -19548,16 +19850,16 @@
         <v>ts[1].</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -19566,16 +19868,16 @@
         <v>ts[1].</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -19584,16 +19886,16 @@
         <v>ts[1].</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -19602,17 +19904,17 @@
         <v>ts[1].</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E31">
         <f>$C$2-A22</f>
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -19621,21 +19923,21 @@
         <v>ts[1].</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -19646,7 +19948,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -19659,16 +19961,17 @@
         <v>ts[2].</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="19">
-        <v>0</v>
+        <f>E22</f>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -19677,17 +19980,17 @@
         <v>ts[2].</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E37" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -19696,17 +19999,17 @@
         <v>ts[2].</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A36)</f>
-        <v>-1632</v>
+        <v>1920</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -19715,17 +20018,17 @@
         <v>ts[2].</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A36)</f>
-        <v>1536</v>
+        <v>3456</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -19734,17 +20037,17 @@
         <v>ts[2].</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40">
         <f ca="1">SQRT(E38^2+E39^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1293.9242636259667</v>
+        <v>207.19530701133044</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -19753,16 +20056,16 @@
         <v>ts[2].</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -19771,16 +20074,16 @@
         <v>ts[2].</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -19789,16 +20092,16 @@
         <v>ts[2].</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -19807,16 +20110,16 @@
         <v>ts[2].</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -19825,17 +20128,17 @@
         <v>ts[2].</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E45">
         <f>$C$2-A36</f>
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -19844,21 +20147,21 @@
         <v>ts[2].</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -19869,7 +20172,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -19882,16 +20185,17 @@
         <v>ts[3].</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E50" s="19">
-        <v>0</v>
+        <f>E36</f>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -19900,17 +20204,17 @@
         <v>ts[3].</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -19919,17 +20223,17 @@
         <v>ts[3].</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E52">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A50)</f>
-        <v>-1344</v>
+        <v>2112</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -19938,17 +20242,17 @@
         <v>ts[3].</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A50)</f>
-        <v>1728</v>
+        <v>3360</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -19957,17 +20261,17 @@
         <v>ts[3].</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54">
         <f ca="1">SQRT(E52^2+E53^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1263.8987301204161</v>
+        <v>207.98787691733824</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -19976,16 +20280,16 @@
         <v>ts[3].</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -19994,16 +20298,16 @@
         <v>ts[3].</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -20012,16 +20316,16 @@
         <v>ts[3].</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -20030,16 +20334,16 @@
         <v>ts[3].</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -20048,17 +20352,17 @@
         <v>ts[3].</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E59">
         <f>$C$2-A50</f>
         <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -20067,21 +20371,21 @@
         <v>ts[3].</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -20092,7 +20396,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -20105,16 +20409,17 @@
         <v>ts[4].</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" s="19">
-        <v>0</v>
+        <f>E50</f>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20123,17 +20428,17 @@
         <v>ts[4].</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20142,17 +20447,17 @@
         <v>ts[4].</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E66">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A64)</f>
-        <v>-1056</v>
+        <v>2400</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20161,17 +20466,17 @@
         <v>ts[4].</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E67">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A64)</f>
-        <v>1824</v>
+        <v>3264</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -20180,17 +20485,17 @@
         <v>ts[4].</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E68">
         <f ca="1">SQRT(E66^2+E67^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1216.8418138772188</v>
+        <v>212.32393293630977</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20199,16 +20504,16 @@
         <v>ts[4].</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20217,16 +20522,16 @@
         <v>ts[4].</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20235,16 +20540,16 @@
         <v>ts[4].</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20253,16 +20558,16 @@
         <v>ts[4].</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20271,17 +20576,17 @@
         <v>ts[4].</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E73">
         <f>$C$2-A64</f>
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20290,21 +20595,21 @@
         <v>ts[4].</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20315,7 +20620,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20328,16 +20633,17 @@
         <v>ts[5].</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E78" s="19">
-        <v>0</v>
+        <f>E64</f>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20346,17 +20652,17 @@
         <v>ts[5].</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E79" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20365,17 +20671,17 @@
         <v>ts[5].</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E80">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A78)</f>
-        <v>-768</v>
+        <v>2880</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20384,17 +20690,17 @@
         <v>ts[5].</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A78)</f>
-        <v>1824</v>
+        <v>3168</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20403,17 +20709,17 @@
         <v>ts[5].</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82">
         <f ca="1">SQRT(E80^2+E81^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1142.6285485668559</v>
+        <v>224.38012311820364</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20422,16 +20728,16 @@
         <v>ts[5].</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20440,16 +20746,16 @@
         <v>ts[5].</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20458,16 +20764,16 @@
         <v>ts[5].</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20476,16 +20782,16 @@
         <v>ts[5].</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20494,17 +20800,17 @@
         <v>ts[5].</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87">
         <f>$C$2-A78</f>
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20513,21 +20819,21 @@
         <v>ts[5].</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -20538,7 +20844,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -20551,16 +20857,17 @@
         <v>ts[6].</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E92" s="19">
-        <v>0</v>
+        <f>E78</f>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -20569,17 +20876,17 @@
         <v>ts[6].</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -20588,17 +20895,17 @@
         <v>ts[6].</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A92)</f>
-        <v>-480</v>
+        <v>3648</v>
       </c>
       <c r="F94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -20607,17 +20914,17 @@
         <v>ts[6].</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E95">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A92)</f>
-        <v>1728</v>
+        <v>3072</v>
       </c>
       <c r="F95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -20626,17 +20933,17 @@
         <v>ts[6].</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96">
         <f ca="1">SQRT(E94^2+E95^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1035.43613999126</v>
+        <v>249.94218844640099</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -20645,16 +20952,16 @@
         <v>ts[6].</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -20663,16 +20970,16 @@
         <v>ts[6].</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -20681,16 +20988,16 @@
         <v>ts[6].</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -20699,16 +21006,16 @@
         <v>ts[6].</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -20717,17 +21024,17 @@
         <v>ts[6].</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E101">
         <f>$C$2-A92</f>
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -20736,21 +21043,21 @@
         <v>ts[6].</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -20761,7 +21068,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -20774,16 +21081,17 @@
         <v>ts[7].</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="19">
-        <v>0</v>
+        <f>E92</f>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -20792,17 +21100,17 @@
         <v>ts[7].</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E107" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F107" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -20811,17 +21119,17 @@
         <v>ts[7].</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E108">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A106)</f>
-        <v>-192</v>
+        <v>-3936</v>
       </c>
       <c r="F108" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -20830,17 +21138,17 @@
         <v>ts[7].</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109">
+        <v>123</v>
+      </c>
+      <c r="E109" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A106)</f>
-        <v>1536</v>
+        <v>#N/A</v>
       </c>
       <c r="F109" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -20849,17 +21157,17 @@
         <v>ts[7].</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110">
+        <v>123</v>
+      </c>
+      <c r="E110" t="e">
         <f ca="1">SQRT(E108^2+E109^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>893.71136280121209</v>
+        <v>#N/A</v>
       </c>
       <c r="F110" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -20868,16 +21176,16 @@
         <v>ts[7].</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -20886,16 +21194,16 @@
         <v>ts[7].</v>
       </c>
       <c r="C112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -20904,16 +21212,16 @@
         <v>ts[7].</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -20922,16 +21230,16 @@
         <v>ts[7].</v>
       </c>
       <c r="C114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -20940,17 +21248,17 @@
         <v>ts[7].</v>
       </c>
       <c r="C115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E115">
         <f>$C$2-A106</f>
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -20959,21 +21267,21 @@
         <v>ts[7].</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -20984,7 +21292,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -20997,16 +21305,17 @@
         <v>ts[8].</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E120" s="19">
-        <v>0</v>
+        <f>E106</f>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21015,17 +21324,17 @@
         <v>ts[8].</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E121" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F121" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21034,17 +21343,17 @@
         <v>ts[8].</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E122">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A120)</f>
-        <v>192</v>
+        <v>-3936</v>
       </c>
       <c r="F122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21053,17 +21362,17 @@
         <v>ts[8].</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>122</v>
-      </c>
-      <c r="E123">
+        <v>123</v>
+      </c>
+      <c r="E123" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A120)</f>
-        <v>1440</v>
+        <v>#N/A</v>
       </c>
       <c r="F123" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21072,17 +21381,17 @@
         <v>ts[8].</v>
       </c>
       <c r="C124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D124" t="s">
-        <v>122</v>
-      </c>
-      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="E124" t="e">
         <f ca="1">SQRT(E122^2+E123^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>838.74191501319399</v>
+        <v>#N/A</v>
       </c>
       <c r="F124" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21091,16 +21400,16 @@
         <v>ts[8].</v>
       </c>
       <c r="C125" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -21109,16 +21418,16 @@
         <v>ts[8].</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21127,16 +21436,16 @@
         <v>ts[8].</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21145,16 +21454,16 @@
         <v>ts[8].</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21163,17 +21472,17 @@
         <v>ts[8].</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E129">
         <f>$C$2-A120</f>
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -21182,21 +21491,21 @@
         <v>ts[8].</v>
       </c>
       <c r="C130" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21207,7 +21516,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21220,16 +21529,17 @@
         <v>ts[9].</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E134" s="19">
-        <v>0</v>
+        <f>E120</f>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -21238,17 +21548,17 @@
         <v>ts[9].</v>
       </c>
       <c r="C135" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D135" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E135" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21257,17 +21567,17 @@
         <v>ts[9].</v>
       </c>
       <c r="C136" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D136" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E136">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A134)</f>
-        <v>576</v>
+        <v>-3936</v>
       </c>
       <c r="F136" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21276,17 +21586,17 @@
         <v>ts[9].</v>
       </c>
       <c r="C137" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D137" t="s">
-        <v>122</v>
-      </c>
-      <c r="E137">
+        <v>123</v>
+      </c>
+      <c r="E137" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A134)</f>
-        <v>1536</v>
+        <v>#N/A</v>
       </c>
       <c r="F137" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21295,17 +21605,17 @@
         <v>ts[9].</v>
       </c>
       <c r="C138" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D138" t="s">
-        <v>122</v>
-      </c>
-      <c r="E138">
+        <v>123</v>
+      </c>
+      <c r="E138" t="e">
         <f ca="1">SQRT(E136^2+E137^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>947.11350956471938</v>
+        <v>#N/A</v>
       </c>
       <c r="F138" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21314,16 +21624,16 @@
         <v>ts[9].</v>
       </c>
       <c r="C139" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D139" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21332,16 +21642,16 @@
         <v>ts[9].</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D140" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21350,16 +21660,16 @@
         <v>ts[9].</v>
       </c>
       <c r="C141" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D141" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21368,16 +21678,16 @@
         <v>ts[9].</v>
       </c>
       <c r="C142" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D142" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -21386,17 +21696,17 @@
         <v>ts[9].</v>
       </c>
       <c r="C143" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D143" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E143">
         <f>$C$2-A134</f>
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21405,21 +21715,21 @@
         <v>ts[9].</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D144" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -21430,7 +21740,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -21443,16 +21753,17 @@
         <v>ts[10].</v>
       </c>
       <c r="C148" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D148" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E148" s="19">
-        <v>0</v>
+        <f>E134</f>
+        <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -21461,17 +21772,17 @@
         <v>ts[10].</v>
       </c>
       <c r="C149" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D149" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E149" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F149" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -21480,17 +21791,17 @@
         <v>ts[10].</v>
       </c>
       <c r="C150" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D150" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E150">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A148)</f>
-        <v>864</v>
+        <v>-3936</v>
       </c>
       <c r="F150" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -21499,17 +21810,17 @@
         <v>ts[10].</v>
       </c>
       <c r="C151" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D151" t="s">
-        <v>122</v>
-      </c>
-      <c r="E151">
+        <v>123</v>
+      </c>
+      <c r="E151" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A148)</f>
-        <v>1632</v>
+        <v>#N/A</v>
       </c>
       <c r="F151" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -21518,17 +21829,17 @@
         <v>ts[10].</v>
       </c>
       <c r="C152" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D152" t="s">
-        <v>122</v>
-      </c>
-      <c r="E152">
+        <v>123</v>
+      </c>
+      <c r="E152" t="e">
         <f ca="1">SQRT(E150^2+E151^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1066.1331999332915</v>
+        <v>#N/A</v>
       </c>
       <c r="F152" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -21537,16 +21848,16 @@
         <v>ts[10].</v>
       </c>
       <c r="C153" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D153" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -21555,16 +21866,16 @@
         <v>ts[10].</v>
       </c>
       <c r="C154" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D154" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -21573,16 +21884,16 @@
         <v>ts[10].</v>
       </c>
       <c r="C155" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D155" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -21591,16 +21902,16 @@
         <v>ts[10].</v>
       </c>
       <c r="C156" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D156" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -21609,17 +21920,17 @@
         <v>ts[10].</v>
       </c>
       <c r="C157" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D157" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E157">
         <f>$C$2-A148</f>
         <v>5</v>
       </c>
       <c r="F157" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -21628,21 +21939,21 @@
         <v>ts[10].</v>
       </c>
       <c r="C158" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -21653,7 +21964,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -21666,16 +21977,17 @@
         <v>ts[11].</v>
       </c>
       <c r="C162" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D162" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E162" s="19">
-        <v>0</v>
+        <f>E148</f>
+        <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -21684,17 +21996,17 @@
         <v>ts[11].</v>
       </c>
       <c r="C163" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D163" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E163" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F163" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -21703,17 +22015,17 @@
         <v>ts[11].</v>
       </c>
       <c r="C164" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D164" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E164">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A162)</f>
-        <v>1248</v>
+        <v>-3936</v>
       </c>
       <c r="F164" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -21722,17 +22034,17 @@
         <v>ts[11].</v>
       </c>
       <c r="C165" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D165" t="s">
-        <v>122</v>
-      </c>
-      <c r="E165">
+        <v>123</v>
+      </c>
+      <c r="E165" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A162)</f>
-        <v>1632</v>
+        <v>#N/A</v>
       </c>
       <c r="F165" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -21741,17 +22053,17 @@
         <v>ts[11].</v>
       </c>
       <c r="C166" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D166" t="s">
-        <v>122</v>
-      </c>
-      <c r="E166">
+        <v>123</v>
+      </c>
+      <c r="E166" t="e">
         <f ca="1">SQRT(E164^2+E165^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1186.1601915424408</v>
+        <v>#N/A</v>
       </c>
       <c r="F166" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -21760,16 +22072,16 @@
         <v>ts[11].</v>
       </c>
       <c r="C167" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D167" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -21778,16 +22090,16 @@
         <v>ts[11].</v>
       </c>
       <c r="C168" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D168" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -21796,16 +22108,16 @@
         <v>ts[11].</v>
       </c>
       <c r="C169" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D169" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -21814,16 +22126,16 @@
         <v>ts[11].</v>
       </c>
       <c r="C170" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D170" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -21832,17 +22144,17 @@
         <v>ts[11].</v>
       </c>
       <c r="C171" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D171" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E171">
         <f>$C$2-A162</f>
         <v>4</v>
       </c>
       <c r="F171" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -21851,21 +22163,21 @@
         <v>ts[11].</v>
       </c>
       <c r="C172" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D172" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -21876,7 +22188,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -21889,16 +22201,17 @@
         <v>ts[12].</v>
       </c>
       <c r="C176" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D176" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E176" s="19">
-        <v>0</v>
+        <f>E162</f>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -21907,17 +22220,17 @@
         <v>ts[12].</v>
       </c>
       <c r="C177" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D177" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E177" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F177" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -21926,17 +22239,17 @@
         <v>ts[12].</v>
       </c>
       <c r="C178" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D178" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E178">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A176)</f>
-        <v>1536</v>
+        <v>-3936</v>
       </c>
       <c r="F178" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -21945,17 +22258,17 @@
         <v>ts[12].</v>
       </c>
       <c r="C179" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D179" t="s">
-        <v>122</v>
-      </c>
-      <c r="E179">
+        <v>123</v>
+      </c>
+      <c r="E179" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A176)</f>
-        <v>1440</v>
+        <v>#N/A</v>
       </c>
       <c r="F179" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -21964,17 +22277,17 @@
         <v>ts[12].</v>
       </c>
       <c r="C180" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D180" t="s">
-        <v>122</v>
-      </c>
-      <c r="E180">
+        <v>123</v>
+      </c>
+      <c r="E180" t="e">
         <f ca="1">SQRT(E178^2+E179^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1215.5788744462448</v>
+        <v>#N/A</v>
       </c>
       <c r="F180" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -21983,16 +22296,16 @@
         <v>ts[12].</v>
       </c>
       <c r="C181" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D181" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -22001,16 +22314,16 @@
         <v>ts[12].</v>
       </c>
       <c r="C182" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D182" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -22019,16 +22332,16 @@
         <v>ts[12].</v>
       </c>
       <c r="C183" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D183" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -22037,16 +22350,16 @@
         <v>ts[12].</v>
       </c>
       <c r="C184" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D184" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -22055,17 +22368,17 @@
         <v>ts[12].</v>
       </c>
       <c r="C185" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D185" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E185">
         <f>$C$2-A176</f>
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -22074,21 +22387,21 @@
         <v>ts[12].</v>
       </c>
       <c r="C186" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D186" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -22099,7 +22412,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -22112,16 +22425,17 @@
         <v>ts[13].</v>
       </c>
       <c r="C190" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D190" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E190" s="19">
-        <v>0</v>
+        <f>E176</f>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -22130,17 +22444,17 @@
         <v>ts[13].</v>
       </c>
       <c r="C191" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D191" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E191" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F191" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -22149,17 +22463,17 @@
         <v>ts[13].</v>
       </c>
       <c r="C192" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D192" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E192">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A190)</f>
-        <v>1920</v>
+        <v>-3936</v>
       </c>
       <c r="F192" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -22168,17 +22482,17 @@
         <v>ts[13].</v>
       </c>
       <c r="C193" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D193" t="s">
-        <v>122</v>
-      </c>
-      <c r="E193">
+        <v>123</v>
+      </c>
+      <c r="E193" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A190)</f>
-        <v>1344</v>
+        <v>#N/A</v>
       </c>
       <c r="F193" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -22187,17 +22501,17 @@
         <v>ts[13].</v>
       </c>
       <c r="C194" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D194" t="s">
-        <v>122</v>
-      </c>
-      <c r="E194">
+        <v>123</v>
+      </c>
+      <c r="E194" t="e">
         <f ca="1">SQRT(E192^2+E193^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1353.1119687594223</v>
+        <v>#N/A</v>
       </c>
       <c r="F194" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -22206,16 +22520,16 @@
         <v>ts[13].</v>
       </c>
       <c r="C195" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D195" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -22224,16 +22538,16 @@
         <v>ts[13].</v>
       </c>
       <c r="C196" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D196" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -22242,16 +22556,16 @@
         <v>ts[13].</v>
       </c>
       <c r="C197" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D197" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -22260,16 +22574,16 @@
         <v>ts[13].</v>
       </c>
       <c r="C198" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D198" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -22278,17 +22592,17 @@
         <v>ts[13].</v>
       </c>
       <c r="C199" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D199" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E199">
         <f>$C$2-A190</f>
         <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -22297,21 +22611,21 @@
         <v>ts[13].</v>
       </c>
       <c r="C200" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D200" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -22322,7 +22636,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -22335,16 +22649,17 @@
         <v>ts[14].</v>
       </c>
       <c r="C204" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D204" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E204" s="19">
-        <v>0</v>
+        <f>E190</f>
+        <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -22353,17 +22668,17 @@
         <v>ts[14].</v>
       </c>
       <c r="C205" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D205" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E205" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F205" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -22372,17 +22687,17 @@
         <v>ts[14].</v>
       </c>
       <c r="C206" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D206" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E206">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A204)</f>
-        <v>2400</v>
+        <v>-3936</v>
       </c>
       <c r="F206" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -22391,17 +22706,17 @@
         <v>ts[14].</v>
       </c>
       <c r="C207" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D207" t="s">
-        <v>122</v>
-      </c>
-      <c r="E207">
+        <v>123</v>
+      </c>
+      <c r="E207" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A204)</f>
-        <v>1248</v>
+        <v>#N/A</v>
       </c>
       <c r="F207" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -22410,17 +22725,17 @@
         <v>ts[14].</v>
       </c>
       <c r="C208" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D208" t="s">
-        <v>122</v>
-      </c>
-      <c r="E208">
+        <v>123</v>
+      </c>
+      <c r="E208" t="e">
         <f ca="1">SQRT(E206^2+E207^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1561.7835957647908</v>
+        <v>#N/A</v>
       </c>
       <c r="F208" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -22429,16 +22744,16 @@
         <v>ts[14].</v>
       </c>
       <c r="C209" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D209" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -22447,16 +22762,16 @@
         <v>ts[14].</v>
       </c>
       <c r="C210" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D210" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -22465,16 +22780,16 @@
         <v>ts[14].</v>
       </c>
       <c r="C211" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D211" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E211">
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -22483,16 +22798,16 @@
         <v>ts[14].</v>
       </c>
       <c r="C212" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D212" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -22501,17 +22816,17 @@
         <v>ts[14].</v>
       </c>
       <c r="C213" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D213" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E213">
         <f>$C$2-A204</f>
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -22520,21 +22835,21 @@
         <v>ts[14].</v>
       </c>
       <c r="C214" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D214" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -22545,7 +22860,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -22558,16 +22873,17 @@
         <v>ts[15].</v>
       </c>
       <c r="C218" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D218" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E218" s="19">
-        <v>0</v>
+        <f>E204</f>
+        <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -22576,17 +22892,17 @@
         <v>ts[15].</v>
       </c>
       <c r="C219" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D219" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E219" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F219" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -22595,17 +22911,17 @@
         <v>ts[15].</v>
       </c>
       <c r="C220" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D220" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E220">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A218)</f>
-        <v>3072</v>
+        <v>-3936</v>
       </c>
       <c r="F220" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -22614,17 +22930,17 @@
         <v>ts[15].</v>
       </c>
       <c r="C221" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D221" t="s">
-        <v>122</v>
-      </c>
-      <c r="E221">
+        <v>123</v>
+      </c>
+      <c r="E221" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A218)</f>
-        <v>1152</v>
+        <v>#N/A</v>
       </c>
       <c r="F221" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -22633,17 +22949,17 @@
         <v>ts[15].</v>
       </c>
       <c r="C222" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D222" t="s">
-        <v>122</v>
-      </c>
-      <c r="E222">
+        <v>123</v>
+      </c>
+      <c r="E222" t="e">
         <f ca="1">SQRT(E220^2+E221^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>1894.2270191294388</v>
+        <v>#N/A</v>
       </c>
       <c r="F222" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -22652,16 +22968,16 @@
         <v>ts[15].</v>
       </c>
       <c r="C223" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D223" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -22670,16 +22986,16 @@
         <v>ts[15].</v>
       </c>
       <c r="C224" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D224" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -22688,16 +23004,16 @@
         <v>ts[15].</v>
       </c>
       <c r="C225" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D225" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E225">
         <v>0</v>
       </c>
       <c r="F225" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -22706,16 +23022,16 @@
         <v>ts[15].</v>
       </c>
       <c r="C226" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D226" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E226">
         <v>0</v>
       </c>
       <c r="F226" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -22724,17 +23040,17 @@
         <v>ts[15].</v>
       </c>
       <c r="C227" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D227" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E227">
         <f>$C$2-A218</f>
         <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -22743,21 +23059,21 @@
         <v>ts[15].</v>
       </c>
       <c r="C228" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D228" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -22768,7 +23084,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -22781,16 +23097,17 @@
         <v>ts[16].</v>
       </c>
       <c r="C232" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D232" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E232" s="19">
-        <v>0</v>
+        <f>E218</f>
+        <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -22799,17 +23116,17 @@
         <v>ts[16].</v>
       </c>
       <c r="C233" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D233" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E233" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F233" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -22818,17 +23135,17 @@
         <v>ts[16].</v>
       </c>
       <c r="C234" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D234" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E234">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A232)</f>
-        <v>3744</v>
+        <v>-3936</v>
       </c>
       <c r="F234" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -22837,17 +23154,17 @@
         <v>ts[16].</v>
       </c>
       <c r="C235" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D235" t="s">
-        <v>122</v>
-      </c>
-      <c r="E235">
+        <v>123</v>
+      </c>
+      <c r="E235" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A232)</f>
-        <v>1056</v>
+        <v>#N/A</v>
       </c>
       <c r="F235" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -22856,17 +23173,17 @@
         <v>ts[16].</v>
       </c>
       <c r="C236" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D236" t="s">
-        <v>122</v>
-      </c>
-      <c r="E236">
+        <v>123</v>
+      </c>
+      <c r="E236" t="e">
         <f ca="1">SQRT(E234^2+E235^2)*TAN(PI()*INIT!$G$35/180)</f>
-        <v>2245.9349946069228</v>
+        <v>#N/A</v>
       </c>
       <c r="F236" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -22875,16 +23192,16 @@
         <v>ts[16].</v>
       </c>
       <c r="C237" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D237" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E237">
         <v>0</v>
       </c>
       <c r="F237" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -22893,16 +23210,16 @@
         <v>ts[16].</v>
       </c>
       <c r="C238" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D238" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
       <c r="F238" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -22911,16 +23228,16 @@
         <v>ts[16].</v>
       </c>
       <c r="C239" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D239" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -22929,16 +23246,16 @@
         <v>ts[16].</v>
       </c>
       <c r="C240" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D240" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -22947,17 +23264,17 @@
         <v>ts[16].</v>
       </c>
       <c r="C241" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D241" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E241">
         <f>$C$2-A232</f>
         <v>-1</v>
       </c>
       <c r="F241" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -22966,21 +23283,21 @@
         <v>ts[16].</v>
       </c>
       <c r="C242" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D242" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
       <c r="F242" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -22991,7 +23308,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -23004,16 +23321,17 @@
         <v>ts[17].</v>
       </c>
       <c r="C246" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D246" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E246" s="19">
-        <v>0</v>
+        <f>E232</f>
+        <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -23022,17 +23340,17 @@
         <v>ts[17].</v>
       </c>
       <c r="C247" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D247" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E247" s="19">
         <f>255</f>
         <v>255</v>
       </c>
       <c r="F247" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -23041,17 +23359,17 @@
         <v>ts[17].</v>
       </c>
       <c r="C248" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D248" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E248">
         <f ca="1">OFFSET(Digital!$B$6,0,track!A246)</f>
         <v>-3936</v>
       </c>
       <c r="F248" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -23060,17 +23378,17 @@
         <v>ts[17].</v>
       </c>
       <c r="C249" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D249" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E249" t="e">
         <f ca="1">OFFSET(Digital!$B$7,0,track!A246)</f>
         <v>#N/A</v>
       </c>
       <c r="F249" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -23079,17 +23397,17 @@
         <v>ts[17].</v>
       </c>
       <c r="C250" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D250" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E250" t="e">
         <f ca="1">SQRT(E248^2+E249^2)*TAN(PI()*INIT!$G$35/180)</f>
         <v>#N/A</v>
       </c>
       <c r="F250" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -23098,16 +23416,16 @@
         <v>ts[17].</v>
       </c>
       <c r="C251" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D251" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
       <c r="F251" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -23116,16 +23434,16 @@
         <v>ts[17].</v>
       </c>
       <c r="C252" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D252" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E252">
         <v>0</v>
       </c>
       <c r="F252" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -23134,16 +23452,16 @@
         <v>ts[17].</v>
       </c>
       <c r="C253" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D253" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
       <c r="F253" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -23152,16 +23470,16 @@
         <v>ts[17].</v>
       </c>
       <c r="C254" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D254" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -23170,17 +23488,17 @@
         <v>ts[17].</v>
       </c>
       <c r="C255" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D255" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E255">
         <f>$C$2-A246</f>
         <v>-2</v>
       </c>
       <c r="F255" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -23189,1183 +23507,21 @@
         <v>ts[17].</v>
       </c>
       <c r="C256" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D256" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>256</v>
-      </c>
-      <c r="D1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>255</v>
-      </c>
-      <c r="D3">
-        <f>ROUND($D$1*VLOOKUP(A3,image!B:D,3,1),0)</f>
-        <v>7875</v>
-      </c>
-      <c r="F3" s="37">
-        <f>VLOOKUP(A3,image!B:J,9,1)</f>
-        <v>0.4877510573707049</v>
-      </c>
-      <c r="G3">
-        <f>ROUND($A$1*F3,0)</f>
         <v>125</v>
-      </c>
-      <c r="H3" t="str">
-        <f>"points= GetPoints("&amp;A3&amp;", "&amp;B3&amp;", "&amp;G3&amp;", "&amp;D3&amp;");"</f>
-        <v>points= GetPoints(0, 255, 125, 7875);</v>
-      </c>
-      <c r="I3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+$A$1</f>
-        <v>256</v>
-      </c>
-      <c r="B4">
-        <f>B3+$A$1</f>
-        <v>511</v>
-      </c>
-      <c r="D4">
-        <f>ROUND($D$1*VLOOKUP(A4,image!B:D,3,1),0)</f>
-        <v>8645</v>
-      </c>
-      <c r="F4" s="37">
-        <f>VLOOKUP(A4,image!B:J,9,1)</f>
-        <v>0.54325630150877768</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G34" si="0">ROUND($A$1*F4,0)</f>
-        <v>139</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H34" si="1">"points= GetPoints("&amp;A4&amp;", "&amp;B4&amp;", "&amp;G4&amp;", "&amp;D4&amp;");"</f>
-        <v>points= GetPoints(256, 511, 139, 8645);</v>
-      </c>
-      <c r="I4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>A4+$A$1</f>
-        <v>512</v>
-      </c>
-      <c r="B5">
-        <f>B4+$A$1</f>
-        <v>767</v>
-      </c>
-      <c r="D5">
-        <f>ROUND($D$1*VLOOKUP(A5,image!B:D,3,1),0)</f>
-        <v>9063</v>
-      </c>
-      <c r="F5" s="37">
-        <f>VLOOKUP(A5,image!B:J,9,1)</f>
-        <v>0.45913007073931078</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(512, 767, 118, 9063);</v>
-      </c>
-      <c r="I5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A5+$A$1</f>
-        <v>768</v>
-      </c>
-      <c r="B6">
-        <f>B5+$A$1</f>
-        <v>1023</v>
-      </c>
-      <c r="D6">
-        <f>ROUND($D$1*VLOOKUP(A6,image!B:D,3,1),0)</f>
-        <v>7683</v>
-      </c>
-      <c r="F6" s="37">
-        <f>VLOOKUP(A6,image!B:J,9,1)</f>
-        <v>0.38356681839010598</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(768, 1023, 98, 7683);</v>
-      </c>
-      <c r="I6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>A6+$A$1</f>
-        <v>1024</v>
-      </c>
-      <c r="B7">
-        <f>B6+$A$1</f>
-        <v>1279</v>
-      </c>
-      <c r="D7">
-        <f>ROUND($D$1*VLOOKUP(A7,image!B:D,3,1),0)</f>
-        <v>5562</v>
-      </c>
-      <c r="F7" s="37">
-        <f>VLOOKUP(A7,image!B:J,9,1)</f>
-        <v>0.94821950328447346</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>243</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(1024, 1279, 243, 5562);</v>
-      </c>
-      <c r="I7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>A7+$A$1</f>
-        <v>1280</v>
-      </c>
-      <c r="B8">
-        <f>B7+$A$1</f>
-        <v>1535</v>
-      </c>
-      <c r="D8">
-        <f>ROUND($D$1*VLOOKUP(A8,image!B:D,3,1),0)</f>
-        <v>4505</v>
-      </c>
-      <c r="F8" s="37">
-        <f>VLOOKUP(A8,image!B:J,9,1)</f>
-        <v>0.527541852056709</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(1280, 1535, 135, 4505);</v>
-      </c>
-      <c r="I8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8+$A$1</f>
-        <v>1536</v>
-      </c>
-      <c r="B9">
-        <f>B8+$A$1</f>
-        <v>1791</v>
-      </c>
-      <c r="D9">
-        <f>ROUND($D$1*VLOOKUP(A9,image!B:D,3,1),0)</f>
-        <v>5496</v>
-      </c>
-      <c r="F9" s="37">
-        <f>VLOOKUP(A9,image!B:J,9,1)</f>
-        <v>0.40674150210247306</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(1536, 1791, 104, 5496);</v>
-      </c>
-      <c r="I9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>A9+$A$1</f>
-        <v>1792</v>
-      </c>
-      <c r="B10">
-        <f>B9+$A$1</f>
-        <v>2047</v>
-      </c>
-      <c r="D10">
-        <f>ROUND($D$1*VLOOKUP(A10,image!B:D,3,1),0)</f>
-        <v>7786</v>
-      </c>
-      <c r="F10" s="37">
-        <f>VLOOKUP(A10,image!B:J,9,1)</f>
-        <v>0.40632876415700636</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(1792, 2047, 104, 7786);</v>
-      </c>
-      <c r="I10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>A10+$A$1</f>
-        <v>2048</v>
-      </c>
-      <c r="B11">
-        <f>B10+$A$1</f>
-        <v>2303</v>
-      </c>
-      <c r="D11">
-        <f>ROUND($D$1*VLOOKUP(A11,image!B:D,3,1),0)</f>
-        <v>9482</v>
-      </c>
-      <c r="F11" s="37">
-        <f>VLOOKUP(A11,image!B:J,9,1)</f>
-        <v>0.45850515345827536</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(2048, 2303, 117, 9482);</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>A11+$A$1</f>
-        <v>2304</v>
-      </c>
-      <c r="B12">
-        <f>B11+$A$1</f>
-        <v>2559</v>
-      </c>
-      <c r="D12">
-        <f>ROUND($D$1*VLOOKUP(A12,image!B:D,3,1),0)</f>
-        <v>9158</v>
-      </c>
-      <c r="F12" s="37">
-        <f>VLOOKUP(A12,image!B:J,9,1)</f>
-        <v>0.59543597164994977</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(2304, 2559, 152, 9158);</v>
-      </c>
-      <c r="I12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>A12+$A$1</f>
-        <v>2560</v>
-      </c>
-      <c r="B13">
-        <f>B12+$A$1</f>
-        <v>2815</v>
-      </c>
-      <c r="D13">
-        <f>ROUND($D$1*VLOOKUP(A13,image!B:D,3,1),0)</f>
-        <v>7088</v>
-      </c>
-      <c r="F13" s="37">
-        <f>VLOOKUP(A13,image!B:J,9,1)</f>
-        <v>0.27860321287100465</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(2560, 2815, 71, 7088);</v>
-      </c>
-      <c r="I13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>A13+$A$1</f>
-        <v>2816</v>
-      </c>
-      <c r="B14">
-        <f>B13+$A$1</f>
-        <v>3071</v>
-      </c>
-      <c r="D14">
-        <f>ROUND($D$1*VLOOKUP(A14,image!B:D,3,1),0)</f>
-        <v>5006</v>
-      </c>
-      <c r="F14" s="37">
-        <f>VLOOKUP(A14,image!B:J,9,1)</f>
-        <v>0.50343317343605998</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(2816, 3071, 129, 5006);</v>
-      </c>
-      <c r="I14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A14+$A$1</f>
-        <v>3072</v>
-      </c>
-      <c r="B15">
-        <f>B14+$A$1</f>
-        <v>3327</v>
-      </c>
-      <c r="D15">
-        <f>ROUND($D$1*VLOOKUP(A15,image!B:D,3,1),0)</f>
-        <v>4615</v>
-      </c>
-      <c r="F15" s="37">
-        <f>VLOOKUP(A15,image!B:J,9,1)</f>
-        <v>0.93710815752642473</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(3072, 3327, 240, 4615);</v>
-      </c>
-      <c r="I15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>A15+$A$1</f>
-        <v>3328</v>
-      </c>
-      <c r="B16">
-        <f>B15+$A$1</f>
-        <v>3583</v>
-      </c>
-      <c r="D16">
-        <f>ROUND($D$1*VLOOKUP(A16,image!B:D,3,1),0)</f>
-        <v>6150</v>
-      </c>
-      <c r="F16" s="37">
-        <f>VLOOKUP(A16,image!B:J,9,1)</f>
-        <v>0.73407288550150607</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(3328, 3583, 188, 6150);</v>
-      </c>
-      <c r="I16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>A16+$A$1</f>
-        <v>3584</v>
-      </c>
-      <c r="B17">
-        <f>B16+$A$1</f>
-        <v>3839</v>
-      </c>
-      <c r="D17">
-        <f>ROUND($D$1*VLOOKUP(A17,image!B:D,3,1),0)</f>
-        <v>8237</v>
-      </c>
-      <c r="F17" s="37">
-        <f>VLOOKUP(A17,image!B:J,9,1)</f>
-        <v>0.94694822949268731</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(3584, 3839, 242, 8237);</v>
-      </c>
-      <c r="I17" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>A17+$A$1</f>
-        <v>3840</v>
-      </c>
-      <c r="B18">
-        <f>B17+$A$1</f>
-        <v>4095</v>
-      </c>
-      <c r="D18">
-        <f>ROUND($D$1*VLOOKUP(A18,image!B:D,3,1),0)</f>
-        <v>9133</v>
-      </c>
-      <c r="F18" s="37">
-        <f>VLOOKUP(A18,image!B:J,9,1)</f>
-        <v>0.63162342901668544</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(3840, 4095, 162, 9133);</v>
-      </c>
-      <c r="I18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>A18+$A$1</f>
-        <v>4096</v>
-      </c>
-      <c r="B19">
-        <f>B18+$A$1</f>
-        <v>4351</v>
-      </c>
-      <c r="D19">
-        <f>ROUND($D$1*VLOOKUP(A19,image!B:D,3,1),0)</f>
-        <v>8224</v>
-      </c>
-      <c r="F19" s="37">
-        <f>VLOOKUP(A19,image!B:J,9,1)</f>
-        <v>0.74552489887175599</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(4096, 4351, 191, 8224);</v>
-      </c>
-      <c r="I19" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>A19+$A$1</f>
-        <v>4352</v>
-      </c>
-      <c r="B20">
-        <f>B19+$A$1</f>
-        <v>4607</v>
-      </c>
-      <c r="D20">
-        <f>ROUND($D$1*VLOOKUP(A20,image!B:D,3,1),0)</f>
-        <v>6460</v>
-      </c>
-      <c r="F20" s="37">
-        <f>VLOOKUP(A20,image!B:J,9,1)</f>
-        <v>0.98541102678424486</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(4352, 4607, 252, 6460);</v>
-      </c>
-      <c r="I20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>A20+$A$1</f>
-        <v>4608</v>
-      </c>
-      <c r="B21">
-        <f>B20+$A$1</f>
-        <v>4863</v>
-      </c>
-      <c r="D21">
-        <f>ROUND($D$1*VLOOKUP(A21,image!B:D,3,1),0)</f>
-        <v>5412</v>
-      </c>
-      <c r="F21" s="37">
-        <f>VLOOKUP(A21,image!B:J,9,1)</f>
-        <v>0.88431101043641058</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>226</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(4608, 4863, 226, 5412);</v>
-      </c>
-      <c r="I21" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>A21+$A$1</f>
-        <v>4864</v>
-      </c>
-      <c r="B22">
-        <f>B21+$A$1</f>
-        <v>5119</v>
-      </c>
-      <c r="D22">
-        <f>ROUND($D$1*VLOOKUP(A22,image!B:D,3,1),0)</f>
-        <v>5862</v>
-      </c>
-      <c r="F22" s="37">
-        <f>VLOOKUP(A22,image!B:J,9,1)</f>
-        <v>0.95402993965767047</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>244</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(4864, 5119, 244, 5862);</v>
-      </c>
-      <c r="I22" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>A22+$A$1</f>
-        <v>5120</v>
-      </c>
-      <c r="B23">
-        <f>B22+$A$1</f>
-        <v>5375</v>
-      </c>
-      <c r="D23">
-        <f>ROUND($D$1*VLOOKUP(A23,image!B:D,3,1),0)</f>
-        <v>7190</v>
-      </c>
-      <c r="F23" s="37">
-        <f>VLOOKUP(A23,image!B:J,9,1)</f>
-        <v>0.43597837520315086</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(5120, 5375, 112, 7190);</v>
-      </c>
-      <c r="I23" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>A23+$A$1</f>
-        <v>5376</v>
-      </c>
-      <c r="B24">
-        <f>B23+$A$1</f>
-        <v>5631</v>
-      </c>
-      <c r="D24">
-        <f>ROUND($D$1*VLOOKUP(A24,image!B:D,3,1),0)</f>
-        <v>8071</v>
-      </c>
-      <c r="F24" s="37">
-        <f>VLOOKUP(A24,image!B:J,9,1)</f>
-        <v>0.66104825004139667</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(5376, 5631, 169, 8071);</v>
-      </c>
-      <c r="I24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>A24+$A$1</f>
-        <v>5632</v>
-      </c>
-      <c r="B25">
-        <f>B24+$A$1</f>
-        <v>5887</v>
-      </c>
-      <c r="D25">
-        <f>ROUND($D$1*VLOOKUP(A25,image!B:D,3,1),0)</f>
-        <v>7757</v>
-      </c>
-      <c r="F25" s="37">
-        <f>VLOOKUP(A25,image!B:J,9,1)</f>
-        <v>0.1561633717893447</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(5632, 5887, 40, 7757);</v>
-      </c>
-      <c r="I25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>A25+$A$1</f>
-        <v>5888</v>
-      </c>
-      <c r="B26">
-        <f>B25+$A$1</f>
-        <v>6143</v>
-      </c>
-      <c r="D26">
-        <f>ROUND($D$1*VLOOKUP(A26,image!B:D,3,1),0)</f>
-        <v>6725</v>
-      </c>
-      <c r="F26" s="37">
-        <f>VLOOKUP(A26,image!B:J,9,1)</f>
-        <v>0.32856380270443541</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(5888, 6143, 84, 6725);</v>
-      </c>
-      <c r="I26" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>A26+$A$1</f>
-        <v>6144</v>
-      </c>
-      <c r="B27">
-        <f>B26+$A$1</f>
-        <v>6399</v>
-      </c>
-      <c r="D27">
-        <f>ROUND($D$1*VLOOKUP(A27,image!B:D,3,1),0)</f>
-        <v>6127</v>
-      </c>
-      <c r="F27" s="37">
-        <f>VLOOKUP(A27,image!B:J,9,1)</f>
-        <v>8.4498003859717952E-2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(6144, 6399, 22, 6127);</v>
-      </c>
-      <c r="I27" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>A27+$A$1</f>
-        <v>6400</v>
-      </c>
-      <c r="B28">
-        <f>B27+$A$1</f>
-        <v>6655</v>
-      </c>
-      <c r="D28">
-        <f>ROUND($D$1*VLOOKUP(A28,image!B:D,3,1),0)</f>
-        <v>6605</v>
-      </c>
-      <c r="F28" s="37">
-        <f>VLOOKUP(A28,image!B:J,9,1)</f>
-        <v>0.80710790851648218</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(6400, 6655, 207, 6605);</v>
-      </c>
-      <c r="I28" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>A28+$A$1</f>
-        <v>6656</v>
-      </c>
-      <c r="B29">
-        <f>B28+$A$1</f>
-        <v>6911</v>
-      </c>
-      <c r="D29">
-        <f>ROUND($D$1*VLOOKUP(A29,image!B:D,3,1),0)</f>
-        <v>7646</v>
-      </c>
-      <c r="F29" s="37">
-        <f>VLOOKUP(A29,image!B:J,9,1)</f>
-        <v>0.22991209995723927</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(6656, 6911, 59, 7646);</v>
-      </c>
-      <c r="I29" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>A29+$A$1</f>
-        <v>6912</v>
-      </c>
-      <c r="B30">
-        <f>B29+$A$1</f>
-        <v>7167</v>
-      </c>
-      <c r="D30">
-        <f>ROUND($D$1*VLOOKUP(A30,image!B:D,3,1),0)</f>
-        <v>8099</v>
-      </c>
-      <c r="F30" s="37">
-        <f>VLOOKUP(A30,image!B:J,9,1)</f>
-        <v>0.75741482753126921</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>194</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(6912, 7167, 194, 8099);</v>
-      </c>
-      <c r="I30" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>A30+$A$1</f>
-        <v>7168</v>
-      </c>
-      <c r="B31">
-        <f>B30+$A$1</f>
-        <v>7423</v>
-      </c>
-      <c r="D31">
-        <f>ROUND($D$1*VLOOKUP(A31,image!B:D,3,1),0)</f>
-        <v>7865</v>
-      </c>
-      <c r="F31" s="37">
-        <f>VLOOKUP(A31,image!B:J,9,1)</f>
-        <v>0.14097920128592689</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(7168, 7423, 36, 7865);</v>
-      </c>
-      <c r="I31" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>A31+$A$1</f>
-        <v>7424</v>
-      </c>
-      <c r="B32">
-        <f>B31+$A$1</f>
-        <v>7679</v>
-      </c>
-      <c r="D32">
-        <f>ROUND($D$1*VLOOKUP(A32,image!B:D,3,1),0)</f>
-        <v>6671</v>
-      </c>
-      <c r="F32" s="37">
-        <f>VLOOKUP(A32,image!B:J,9,1)</f>
-        <v>0.97918298352010513</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(7424, 7679, 251, 6671);</v>
-      </c>
-      <c r="I32" t="s">
-        <v>130</v>
-      </c>
-      <c r="J32" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>A32+$A$1</f>
-        <v>7680</v>
-      </c>
-      <c r="B33">
-        <f>B32+$A$1</f>
-        <v>7935</v>
-      </c>
-      <c r="D33">
-        <f>ROUND($D$1*VLOOKUP(A33,image!B:D,3,1),0)</f>
-        <v>5529</v>
-      </c>
-      <c r="F33" s="37">
-        <f>VLOOKUP(A33,image!B:J,9,1)</f>
-        <v>0.59056738559780819</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(7680, 7935, 151, 5529);</v>
-      </c>
-      <c r="I33" t="s">
-        <v>130</v>
-      </c>
-      <c r="J33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>A33+$A$1</f>
-        <v>7936</v>
-      </c>
-      <c r="B34">
-        <f>B33+$A$1</f>
-        <v>8191</v>
-      </c>
-      <c r="D34">
-        <f>ROUND($D$1*VLOOKUP(A34,image!B:D,3,1),0)</f>
-        <v>5642</v>
-      </c>
-      <c r="F34" s="37">
-        <f>VLOOKUP(A34,image!B:J,9,1)</f>
-        <v>0.76376821622286384</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>points= GetPoints(7936, 8191, 196, 5642);</v>
-      </c>
-      <c r="I34" t="s">
-        <v>130</v>
-      </c>
-      <c r="J34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -24376,29 +23532,1200 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>256</v>
+      </c>
+      <c r="B1">
+        <v>64</v>
+      </c>
+      <c r="D1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <f>ROUND($D$1*VLOOKUP(A3,image!B:D,3,1),0)</f>
+        <v>5625</v>
+      </c>
+      <c r="F3" s="37">
+        <f ca="1">NORMSINV(RAND())</f>
+        <v>0.42644191320904362</v>
+      </c>
+      <c r="G3">
+        <f ca="1">$B$1+ROUND($B$1*F3*0.3,0)</f>
+        <v>72</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1">"points= GetPoints("&amp;A3&amp;", "&amp;B3&amp;", "&amp;G3&amp;", "&amp;$D$1&amp;");"</f>
+        <v>points= GetPoints(0, 255, 72, 2500);</v>
+      </c>
+      <c r="I3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3">
+        <v>937464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+$A$1</f>
+        <v>256</v>
+      </c>
+      <c r="B4">
+        <f>B3+$A$1</f>
+        <v>511</v>
+      </c>
+      <c r="D4">
+        <f>ROUND($D$1*VLOOKUP(A4,image!B:D,3,1),0)</f>
+        <v>6175</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" ref="F4:F34" ca="1" si="0">NORMSINV(RAND())</f>
+        <v>0.14755037154679629</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G34" ca="1" si="1">$B$1+ROUND($B$1*F4*0.3,0)</f>
+        <v>67</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H34" ca="1" si="2">"points= GetPoints("&amp;A4&amp;", "&amp;B4&amp;", "&amp;G4&amp;", "&amp;$D$1&amp;");"</f>
+        <v>points= GetPoints(256, 511, 67, 2500);</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4">
+        <v>939265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+$A$1</f>
+        <v>512</v>
+      </c>
+      <c r="B5">
+        <f>B4+$A$1</f>
+        <v>767</v>
+      </c>
+      <c r="D5">
+        <f>ROUND($D$1*VLOOKUP(A5,image!B:D,3,1),0)</f>
+        <v>6473</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73814002986945892</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(512, 767, 78, 2500);</v>
+      </c>
+      <c r="I5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+$A$1</f>
+        <v>768</v>
+      </c>
+      <c r="B6">
+        <f>B5+$A$1</f>
+        <v>1023</v>
+      </c>
+      <c r="D6">
+        <f>ROUND($D$1*VLOOKUP(A6,image!B:D,3,1),0)</f>
+        <v>5488</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.73671332354384766</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(768, 1023, 50, 2500);</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+$A$1</f>
+        <v>1024</v>
+      </c>
+      <c r="B7">
+        <f>B6+$A$1</f>
+        <v>1279</v>
+      </c>
+      <c r="D7">
+        <f>ROUND($D$1*VLOOKUP(A7,image!B:D,3,1),0)</f>
+        <v>3973</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6544695803414524</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(1024, 1279, 96, 2500);</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+$A$1</f>
+        <v>1280</v>
+      </c>
+      <c r="B8">
+        <f>B7+$A$1</f>
+        <v>1535</v>
+      </c>
+      <c r="D8">
+        <f>ROUND($D$1*VLOOKUP(A8,image!B:D,3,1),0)</f>
+        <v>3218</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0619795573887265</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(1280, 1535, 84, 2500);</v>
+      </c>
+      <c r="I8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+$A$1</f>
+        <v>1536</v>
+      </c>
+      <c r="B9">
+        <f>B8+$A$1</f>
+        <v>1791</v>
+      </c>
+      <c r="D9">
+        <f>ROUND($D$1*VLOOKUP(A9,image!B:D,3,1),0)</f>
+        <v>3926</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8035593124587699</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(1536, 1791, 99, 2500);</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+$A$1</f>
+        <v>1792</v>
+      </c>
+      <c r="B10">
+        <f>B9+$A$1</f>
+        <v>2047</v>
+      </c>
+      <c r="D10">
+        <f>ROUND($D$1*VLOOKUP(A10,image!B:D,3,1),0)</f>
+        <v>5562</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.44100996972376255</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(1792, 2047, 56, 2500);</v>
+      </c>
+      <c r="I10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+$A$1</f>
+        <v>2048</v>
+      </c>
+      <c r="B11">
+        <f>B10+$A$1</f>
+        <v>2303</v>
+      </c>
+      <c r="D11">
+        <f>ROUND($D$1*VLOOKUP(A11,image!B:D,3,1),0)</f>
+        <v>6773</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3137077661694139E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(2048, 2303, 65, 2500);</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+$A$1</f>
+        <v>2304</v>
+      </c>
+      <c r="B12">
+        <f>B11+$A$1</f>
+        <v>2559</v>
+      </c>
+      <c r="D12">
+        <f>ROUND($D$1*VLOOKUP(A12,image!B:D,3,1),0)</f>
+        <v>6541</v>
+      </c>
+      <c r="F12" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1297005451662705</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(2304, 2559, 42, 2500);</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+$A$1</f>
+        <v>2560</v>
+      </c>
+      <c r="B13">
+        <f>B12+$A$1</f>
+        <v>2815</v>
+      </c>
+      <c r="D13">
+        <f>ROUND($D$1*VLOOKUP(A13,image!B:D,3,1),0)</f>
+        <v>5063</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.71015143233659472</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(2560, 2815, 50, 2500);</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13+$A$1</f>
+        <v>2816</v>
+      </c>
+      <c r="B14">
+        <f>B13+$A$1</f>
+        <v>3071</v>
+      </c>
+      <c r="D14">
+        <f>ROUND($D$1*VLOOKUP(A14,image!B:D,3,1),0)</f>
+        <v>3576</v>
+      </c>
+      <c r="F14" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.2829617478572507</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(2816, 3071, 59, 2500);</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+$A$1</f>
+        <v>3072</v>
+      </c>
+      <c r="B15">
+        <f>B14+$A$1</f>
+        <v>3327</v>
+      </c>
+      <c r="D15">
+        <f>ROUND($D$1*VLOOKUP(A15,image!B:D,3,1),0)</f>
+        <v>3296</v>
+      </c>
+      <c r="F15" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4972762672856769E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(3072, 3327, 64, 2500);</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15+$A$1</f>
+        <v>3328</v>
+      </c>
+      <c r="B16">
+        <f>B15+$A$1</f>
+        <v>3583</v>
+      </c>
+      <c r="D16">
+        <f>ROUND($D$1*VLOOKUP(A16,image!B:D,3,1),0)</f>
+        <v>4393</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50766583576866509</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(3328, 3583, 74, 2500);</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A16+$A$1</f>
+        <v>3584</v>
+      </c>
+      <c r="B17">
+        <f>B16+$A$1</f>
+        <v>3839</v>
+      </c>
+      <c r="D17">
+        <f>ROUND($D$1*VLOOKUP(A17,image!B:D,3,1),0)</f>
+        <v>5883</v>
+      </c>
+      <c r="F17" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0080775530965713</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(3584, 3839, 45, 2500);</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A17+$A$1</f>
+        <v>3840</v>
+      </c>
+      <c r="B18">
+        <f>B17+$A$1</f>
+        <v>4095</v>
+      </c>
+      <c r="D18">
+        <f>ROUND($D$1*VLOOKUP(A18,image!B:D,3,1),0)</f>
+        <v>6524</v>
+      </c>
+      <c r="F18" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0248613988001807</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(3840, 4095, 84, 2500);</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A18+$A$1</f>
+        <v>4096</v>
+      </c>
+      <c r="B19">
+        <f>B18+$A$1</f>
+        <v>4351</v>
+      </c>
+      <c r="D19">
+        <f>ROUND($D$1*VLOOKUP(A19,image!B:D,3,1),0)</f>
+        <v>5874</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1603818536320956</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(4096, 4351, 42, 2500);</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A19+$A$1</f>
+        <v>4352</v>
+      </c>
+      <c r="B20">
+        <f>B19+$A$1</f>
+        <v>4607</v>
+      </c>
+      <c r="D20">
+        <f>ROUND($D$1*VLOOKUP(A20,image!B:D,3,1),0)</f>
+        <v>4614</v>
+      </c>
+      <c r="F20" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13690916499633729</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(4352, 4607, 67, 2500);</v>
+      </c>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A20+$A$1</f>
+        <v>4608</v>
+      </c>
+      <c r="B21">
+        <f>B20+$A$1</f>
+        <v>4863</v>
+      </c>
+      <c r="D21">
+        <f>ROUND($D$1*VLOOKUP(A21,image!B:D,3,1),0)</f>
+        <v>3866</v>
+      </c>
+      <c r="F21" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0490231439942457</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(4608, 4863, 44, 2500);</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>A21+$A$1</f>
+        <v>4864</v>
+      </c>
+      <c r="B22">
+        <f>B21+$A$1</f>
+        <v>5119</v>
+      </c>
+      <c r="D22">
+        <f>ROUND($D$1*VLOOKUP(A22,image!B:D,3,1),0)</f>
+        <v>4187</v>
+      </c>
+      <c r="F22" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1283207742212067</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(4864, 5119, 86, 2500);</v>
+      </c>
+      <c r="I22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A22+$A$1</f>
+        <v>5120</v>
+      </c>
+      <c r="B23">
+        <f>B22+$A$1</f>
+        <v>5375</v>
+      </c>
+      <c r="D23">
+        <f>ROUND($D$1*VLOOKUP(A23,image!B:D,3,1),0)</f>
+        <v>5136</v>
+      </c>
+      <c r="F23" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0670892966472745</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(5120, 5375, 44, 2500);</v>
+      </c>
+      <c r="I23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A23+$A$1</f>
+        <v>5376</v>
+      </c>
+      <c r="B24">
+        <f>B23+$A$1</f>
+        <v>5631</v>
+      </c>
+      <c r="D24">
+        <f>ROUND($D$1*VLOOKUP(A24,image!B:D,3,1),0)</f>
+        <v>5765</v>
+      </c>
+      <c r="F24" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9937749821779408</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(5376, 5631, 83, 2500);</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A24+$A$1</f>
+        <v>5632</v>
+      </c>
+      <c r="B25">
+        <f>B24+$A$1</f>
+        <v>5887</v>
+      </c>
+      <c r="D25">
+        <f>ROUND($D$1*VLOOKUP(A25,image!B:D,3,1),0)</f>
+        <v>5540</v>
+      </c>
+      <c r="F25" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51907670479115586</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(5632, 5887, 74, 2500);</v>
+      </c>
+      <c r="I25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25+$A$1</f>
+        <v>5888</v>
+      </c>
+      <c r="B26">
+        <f>B25+$A$1</f>
+        <v>6143</v>
+      </c>
+      <c r="D26">
+        <f>ROUND($D$1*VLOOKUP(A26,image!B:D,3,1),0)</f>
+        <v>4804</v>
+      </c>
+      <c r="F26" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.88766410263381312</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(5888, 6143, 47, 2500);</v>
+      </c>
+      <c r="I26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A26+$A$1</f>
+        <v>6144</v>
+      </c>
+      <c r="B27">
+        <f>B26+$A$1</f>
+        <v>6399</v>
+      </c>
+      <c r="D27">
+        <f>ROUND($D$1*VLOOKUP(A27,image!B:D,3,1),0)</f>
+        <v>4377</v>
+      </c>
+      <c r="F27" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.54372484142437405</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(6144, 6399, 54, 2500);</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A27+$A$1</f>
+        <v>6400</v>
+      </c>
+      <c r="B28">
+        <f>B27+$A$1</f>
+        <v>6655</v>
+      </c>
+      <c r="D28">
+        <f>ROUND($D$1*VLOOKUP(A28,image!B:D,3,1),0)</f>
+        <v>4718</v>
+      </c>
+      <c r="F28" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1910581509647371</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(6400, 6655, 87, 2500);</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28+$A$1</f>
+        <v>6656</v>
+      </c>
+      <c r="B29">
+        <f>B28+$A$1</f>
+        <v>6911</v>
+      </c>
+      <c r="D29">
+        <f>ROUND($D$1*VLOOKUP(A29,image!B:D,3,1),0)</f>
+        <v>5462</v>
+      </c>
+      <c r="F29" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2667795770347543</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(6656, 6911, 69, 2500);</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A29+$A$1</f>
+        <v>6912</v>
+      </c>
+      <c r="B30">
+        <f>B29+$A$1</f>
+        <v>7167</v>
+      </c>
+      <c r="D30">
+        <f>ROUND($D$1*VLOOKUP(A30,image!B:D,3,1),0)</f>
+        <v>5785</v>
+      </c>
+      <c r="F30" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.57885870075307111</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(6912, 7167, 53, 2500);</v>
+      </c>
+      <c r="I30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A30+$A$1</f>
+        <v>7168</v>
+      </c>
+      <c r="B31">
+        <f>B30+$A$1</f>
+        <v>7423</v>
+      </c>
+      <c r="D31">
+        <f>ROUND($D$1*VLOOKUP(A31,image!B:D,3,1),0)</f>
+        <v>5618</v>
+      </c>
+      <c r="F31" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.73527367515401354</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(7168, 7423, 50, 2500);</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A31+$A$1</f>
+        <v>7424</v>
+      </c>
+      <c r="B32">
+        <f>B31+$A$1</f>
+        <v>7679</v>
+      </c>
+      <c r="D32">
+        <f>ROUND($D$1*VLOOKUP(A32,image!B:D,3,1),0)</f>
+        <v>4765</v>
+      </c>
+      <c r="F32" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6746097799965396</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(7424, 7679, 115, 2500);</v>
+      </c>
+      <c r="I32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+$A$1</f>
+        <v>7680</v>
+      </c>
+      <c r="B33">
+        <f>B32+$A$1</f>
+        <v>7935</v>
+      </c>
+      <c r="D33">
+        <f>ROUND($D$1*VLOOKUP(A33,image!B:D,3,1),0)</f>
+        <v>3949</v>
+      </c>
+      <c r="F33" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4065164208081673</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(7680, 7935, 72, 2500);</v>
+      </c>
+      <c r="I33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>A33+$A$1</f>
+        <v>7936</v>
+      </c>
+      <c r="B34">
+        <f>B33+$A$1</f>
+        <v>8191</v>
+      </c>
+      <c r="D34">
+        <f>ROUND($D$1*VLOOKUP(A34,image!B:D,3,1),0)</f>
+        <v>4030</v>
+      </c>
+      <c r="F34" s="37">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3597579538845146</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>points= GetPoints(7936, 8191, 38, 2500);</v>
+      </c>
+      <c r="I34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
         <v>85</v>
@@ -24426,7 +24753,7 @@
       </c>
       <c r="I3">
         <f ca="1">RAND()</f>
-        <v>0.9212301239229429</v>
+        <v>0.63586316080671945</v>
       </c>
       <c r="J3">
         <v>0.4877510573707049</v>
@@ -24454,7 +24781,7 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I66" ca="1" si="3">RAND()</f>
-        <v>0.22015675770869703</v>
+        <v>0.19093091720691469</v>
       </c>
       <c r="J4">
         <v>0.54325630150877768</v>
@@ -24482,7 +24809,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10209931519579463</v>
+        <v>9.7611821527051834E-2</v>
       </c>
       <c r="J5">
         <v>0.40464453036968184</v>
@@ -24510,7 +24837,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64804230175344368</v>
+        <v>5.5236071088318184E-3</v>
       </c>
       <c r="J6">
         <v>0.45913007073931078</v>
@@ -24538,7 +24865,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8168862284365318</v>
+        <v>0.54403304502062244</v>
       </c>
       <c r="J7">
         <v>0.72773385924356515</v>
@@ -24566,7 +24893,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0059063491546456E-2</v>
+        <v>0.95227870508205126</v>
       </c>
       <c r="J8">
         <v>0.38356681839010598</v>
@@ -24594,7 +24921,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42914612891533233</v>
+        <v>0.13348530180578033</v>
       </c>
       <c r="J9">
         <v>0.37953330287269638</v>
@@ -24622,7 +24949,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84144019103710788</v>
+        <v>0.11334364078887438</v>
       </c>
       <c r="J10">
         <v>0.94821950328447346</v>
@@ -24650,7 +24977,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7165981986848754</v>
+        <v>0.43125302696740753</v>
       </c>
       <c r="J11">
         <v>0.69960309684566691</v>
@@ -24678,7 +25005,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88801091691536149</v>
+        <v>0.48958894124840246</v>
       </c>
       <c r="J12">
         <v>0.527541852056709</v>
@@ -24706,7 +25033,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96908765795459284</v>
+        <v>6.3396844373999728E-2</v>
       </c>
       <c r="J13">
         <v>0.58947301864735324</v>
@@ -24734,7 +25061,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76343204835434297</v>
+        <v>0.98838277541513886</v>
       </c>
       <c r="J14">
         <v>0.40674150210247306</v>
@@ -24762,7 +25089,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26924708249816243</v>
+        <v>0.41100035679017799</v>
       </c>
       <c r="J15">
         <v>6.6690079213583497E-2</v>
@@ -24790,7 +25117,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22349088081936586</v>
+        <v>0.38542916608490607</v>
       </c>
       <c r="J16">
         <v>0.40632876415700636</v>
@@ -24818,7 +25145,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28984339792990443</v>
+        <v>0.15358853817630347</v>
       </c>
       <c r="J17">
         <v>0.42091324979954714</v>
@@ -24846,7 +25173,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95761377971618955</v>
+        <v>0.91670281079207283</v>
       </c>
       <c r="J18">
         <v>0.45850515345827536</v>
@@ -24874,7 +25201,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84245811335979404</v>
+        <v>0.53058728517433962</v>
       </c>
       <c r="J19">
         <v>0.16841138010209666</v>
@@ -24902,7 +25229,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23478314774960984</v>
+        <v>5.2770180378055698E-2</v>
       </c>
       <c r="J20">
         <v>0.59543597164994977</v>
@@ -24930,7 +25257,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15593041304675337</v>
+        <v>0.13838156258935663</v>
       </c>
       <c r="J21">
         <v>9.5950115387705592E-2</v>
@@ -24958,7 +25285,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91473845810343235</v>
+        <v>0.94793533639976901</v>
       </c>
       <c r="J22">
         <v>0.27860321287100465</v>
@@ -24986,7 +25313,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63999911592407355</v>
+        <v>0.47341817328975166</v>
       </c>
       <c r="J23">
         <v>0.71810357654164569</v>
@@ -25014,7 +25341,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92028887617932631</v>
+        <v>0.93476974358904941</v>
       </c>
       <c r="J24">
         <v>0.50343317343605998</v>
@@ -25042,7 +25369,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52399421401755741</v>
+        <v>0.46757670460657219</v>
       </c>
       <c r="J25">
         <v>0.93571016670175677</v>
@@ -25070,7 +25397,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3844707283409049</v>
+        <v>0.35619424148022394</v>
       </c>
       <c r="J26">
         <v>0.93710815752642473</v>
@@ -25098,7 +25425,7 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84945574853823391</v>
+        <v>0.93113581133304857</v>
       </c>
       <c r="J27">
         <v>0.36882170954357452</v>
@@ -25126,7 +25453,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72614952252471421</v>
+        <v>0.88070466097669731</v>
       </c>
       <c r="J28">
         <v>0.73407288550150607</v>
@@ -25154,7 +25481,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.390102084147814</v>
+        <v>0.8540431050119055</v>
       </c>
       <c r="J29">
         <v>0.56805512373880063</v>
@@ -25182,7 +25509,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14050731217299239</v>
+        <v>0.46600640824221706</v>
       </c>
       <c r="J30">
         <v>0.94694822949268731</v>
@@ -25210,7 +25537,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41036240528526313</v>
+        <v>0.9606464505753094</v>
       </c>
       <c r="J31">
         <v>0.58015903046933803</v>
@@ -25238,7 +25565,7 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10009651811374076</v>
+        <v>0.31537952949910986</v>
       </c>
       <c r="J32">
         <v>0.63162342901668544</v>
@@ -25266,7 +25593,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88909060104468685</v>
+        <v>2.6765604454492387E-2</v>
       </c>
       <c r="J33">
         <v>0.63444670375463907</v>
@@ -25294,7 +25621,7 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45736082528111399</v>
+        <v>0.59903643744142354</v>
       </c>
       <c r="J34">
         <v>0.74552489887175599</v>
@@ -25322,7 +25649,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3357557702475138</v>
+        <v>3.6662576254189672E-2</v>
       </c>
       <c r="J35">
         <v>0.74209851300873353</v>
@@ -25350,7 +25677,7 @@
       </c>
       <c r="I36">
         <f ca="1">RAND()</f>
-        <v>0.39533676412043384</v>
+        <v>0.35493101609694178</v>
       </c>
       <c r="J36">
         <v>0.98541102678424486</v>
@@ -25378,7 +25705,7 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22102833440689484</v>
+        <v>0.12518117460694622</v>
       </c>
       <c r="J37">
         <v>0.34659788845733852</v>
@@ -25406,7 +25733,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12581864547426025</v>
+        <v>0.56548519362425598</v>
       </c>
       <c r="J38">
         <v>0.88431101043641058</v>
@@ -25434,7 +25761,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96180240102261072</v>
+        <v>0.74798795862767908</v>
       </c>
       <c r="J39">
         <v>0.57679105750703474</v>
@@ -25462,7 +25789,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72795143270907836</v>
+        <v>0.91784535686732549</v>
       </c>
       <c r="J40">
         <v>0.95402993965767047</v>
@@ -25490,7 +25817,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3041418783343683E-2</v>
+        <v>0.94025610156313244</v>
       </c>
       <c r="J41">
         <v>0.94935758483712396</v>
@@ -25518,7 +25845,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45111932162495494</v>
+        <v>0.73949444216130322</v>
       </c>
       <c r="J42">
         <v>0.43597837520315086</v>
@@ -25546,7 +25873,7 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89482018463914259</v>
+        <v>0.47778248465029971</v>
       </c>
       <c r="J43">
         <v>0.20514044941608511</v>
@@ -25574,7 +25901,7 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96747136520425359</v>
+        <v>0.34384874376549501</v>
       </c>
       <c r="J44">
         <v>0.66104825004139667</v>
@@ -25602,7 +25929,7 @@
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47449680050235898</v>
+        <v>0.10514012931997818</v>
       </c>
       <c r="J45">
         <v>0.25338104191022992</v>
@@ -25630,7 +25957,7 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98923167814287205</v>
+        <v>0.37259244128200464</v>
       </c>
       <c r="J46">
         <v>0.1561633717893447</v>
@@ -25658,7 +25985,7 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58881856300670743</v>
+        <v>0.63925900078042186</v>
       </c>
       <c r="J47">
         <v>0.2509878219155437</v>
@@ -25686,7 +26013,7 @@
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18086879235033992</v>
+        <v>0.613627263156164</v>
       </c>
       <c r="J48">
         <v>0.32856380270443541</v>
@@ -25714,7 +26041,7 @@
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82117225735597388</v>
+        <v>0.12101646536310107</v>
       </c>
       <c r="J49">
         <v>8.2348218556455022E-2</v>
@@ -25742,7 +26069,7 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53284754276858437</v>
+        <v>0.21253904091873577</v>
       </c>
       <c r="J50">
         <v>8.4498003859717952E-2</v>
@@ -25770,7 +26097,7 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4304380687742636</v>
+        <v>0.28947187181655354</v>
       </c>
       <c r="J51">
         <v>0.36486970491873849</v>
@@ -25798,7 +26125,7 @@
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69072169445896503</v>
+        <v>0.1664887361789138</v>
       </c>
       <c r="J52">
         <v>0.80710790851648218</v>
@@ -25826,7 +26153,7 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37002408570006839</v>
+        <v>0.93409431671546017</v>
       </c>
       <c r="J53">
         <v>0.38604390062083649</v>
@@ -25854,7 +26181,7 @@
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59821802447339623</v>
+        <v>0.11950848273567372</v>
       </c>
       <c r="J54">
         <v>0.22991209995723927</v>
@@ -25882,7 +26209,7 @@
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23088926355647121</v>
+        <v>3.4972149702211408E-2</v>
       </c>
       <c r="J55">
         <v>0.69477905624447578</v>
@@ -25910,7 +26237,7 @@
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9050975296888738</v>
+        <v>0.85465978149381927</v>
       </c>
       <c r="J56">
         <v>0.75741482753126921</v>
@@ -25938,7 +26265,7 @@
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86132676751243342</v>
+        <v>0.49487227559002311</v>
       </c>
       <c r="J57">
         <v>0.14097920128592689</v>
@@ -25966,7 +26293,7 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75250633282557089</v>
+        <v>0.21555092212593319</v>
       </c>
       <c r="J58">
         <v>0.16171093810271853</v>
@@ -25994,7 +26321,7 @@
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24759987748682977</v>
+        <v>0.81014303882914351</v>
       </c>
       <c r="J59">
         <v>0.97918298352010513</v>
@@ -26022,7 +26349,7 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21482184500369061</v>
+        <v>0.18429515949334474</v>
       </c>
       <c r="J60">
         <v>0.39906673319937569</v>
@@ -26050,7 +26377,7 @@
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6415707409557897</v>
+        <v>0.15608791642419684</v>
       </c>
       <c r="J61">
         <v>0.59056738559780819</v>
@@ -26078,7 +26405,7 @@
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38206876737126039</v>
+        <v>0.20723573200425816</v>
       </c>
       <c r="J62">
         <v>0.55198000396737146</v>
@@ -26106,7 +26433,7 @@
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2367635336528355E-2</v>
+        <v>0.34525505980904192</v>
       </c>
       <c r="J63">
         <v>0.76376821622286384</v>
@@ -26134,7 +26461,7 @@
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="3"/>
-        <v>9.651694424444579E-2</v>
+        <v>0.31560502447043237</v>
       </c>
       <c r="J64">
         <v>0.74209221951814008</v>
@@ -26162,7 +26489,7 @@
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9770904000242977E-2</v>
+        <v>4.4641865143595028E-2</v>
       </c>
       <c r="J65">
         <v>0.14807017953132728</v>
@@ -26190,7 +26517,7 @@
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42949225998452445</v>
+        <v>6.7782859820867625E-2</v>
       </c>
       <c r="J66">
         <v>0.28642218799189867</v>
